--- a/부산게임.xlsx
+++ b/부산게임.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomil\Desktop\Git\ActionShootingGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,22 @@
   </si>
   <si>
     <t>창모드 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘베</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +278,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +380,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2D32AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -544,173 +582,241 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,6 +825,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2D32AA"/>
+      <color rgb="FF2D37AA"/>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -993,304 +1106,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:X21"/>
+  <dimension ref="D2:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9" style="2"/>
-    <col min="20" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9" style="2"/>
-    <col min="23" max="23" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9" style="1"/>
+    <col min="23" max="23" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D3" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="44">
+        <v>7.3113425925925915E-2</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="T3" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="44">
+        <f>SUM(G3,E10:E15,G10:G15,I10:I15,L9:L13,O9:O15,R9:R12,U9:U16,X9:X17)</f>
+        <v>7.3113425925925915E-2</v>
+      </c>
+      <c r="X3" s="45"/>
+    </row>
+    <row r="4" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="47"/>
+    </row>
     <row r="6" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="K7" s="24" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="K7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="N7" s="28" t="s">
+      <c r="L7" s="59"/>
+      <c r="N7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="Q7" s="32" t="s">
+      <c r="O7" s="25"/>
+      <c r="Q7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="T7" s="36" t="s">
+      <c r="R7" s="29"/>
+      <c r="T7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="37"/>
-      <c r="W7" s="40" t="s">
+      <c r="U7" s="33"/>
+      <c r="W7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="41"/>
+      <c r="X7" s="37"/>
     </row>
     <row r="8" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="35"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="39"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="43"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="27"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="35"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="39"/>
     </row>
     <row r="9" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="50" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50" t="s">
+      <c r="G9" s="55"/>
+      <c r="H9" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="K9" s="13" t="s">
+      <c r="I9" s="57"/>
+      <c r="K9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="N9" s="15" t="s">
+      <c r="L9" s="3"/>
+      <c r="N9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="Q9" s="21" t="s">
+      <c r="O9" s="3"/>
+      <c r="Q9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="T9" s="19" t="s">
+      <c r="R9" s="3"/>
+      <c r="T9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="5"/>
-      <c r="W9" s="17" t="s">
+      <c r="U9" s="3"/>
+      <c r="W9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="X9" s="5"/>
+      <c r="X9" s="3"/>
     </row>
     <row r="10" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="N10" s="15" t="s">
+      <c r="L10" s="3"/>
+      <c r="N10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="Q10" s="21" t="s">
+      <c r="O10" s="3"/>
+      <c r="Q10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="T10" s="19" t="s">
+      <c r="R10" s="3"/>
+      <c r="T10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="5"/>
-      <c r="W10" s="17" t="s">
+      <c r="U10" s="3"/>
+      <c r="W10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="X10" s="5"/>
+      <c r="X10" s="3"/>
     </row>
     <row r="11" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="N11" s="15" t="s">
+      <c r="L11" s="3"/>
+      <c r="N11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="Q11" s="21" t="s">
+      <c r="O11" s="3"/>
+      <c r="Q11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="T11" s="19" t="s">
+      <c r="R11" s="3"/>
+      <c r="T11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="5"/>
-      <c r="W11" s="23" t="s">
+      <c r="U11" s="3"/>
+      <c r="W11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X11" s="5"/>
+      <c r="X11" s="3"/>
     </row>
     <row r="12" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="11"/>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="N12" s="15" t="s">
+      <c r="L12" s="3"/>
+      <c r="N12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="Q12" s="22" t="s">
+      <c r="O12" s="3"/>
+      <c r="Q12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="T12" s="19" t="s">
+      <c r="R12" s="14"/>
+      <c r="T12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="5"/>
-      <c r="W12" s="17" t="s">
+      <c r="U12" s="3"/>
+      <c r="W12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="X12" s="5"/>
+      <c r="X12" s="3"/>
     </row>
     <row r="13" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="16" t="s">
+      <c r="L13" s="14"/>
+      <c r="N13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="T13" s="19" t="s">
+      <c r="O13" s="3"/>
+      <c r="T13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U13" s="5"/>
-      <c r="W13" s="17" t="s">
+      <c r="U13" s="3"/>
+      <c r="W13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X13" s="5"/>
+      <c r="X13" s="3"/>
     </row>
     <row r="14" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="11"/>
-      <c r="T14" s="19" t="s">
+      <c r="N14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="T14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="5"/>
-      <c r="W14" s="17" t="s">
+      <c r="U14" s="3"/>
+      <c r="W14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X14" s="5"/>
+      <c r="X14" s="3"/>
     </row>
     <row r="15" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="12"/>
-      <c r="T15" s="19" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="N15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="T15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="5"/>
-      <c r="W15" s="17" t="s">
+      <c r="U15" s="3"/>
+      <c r="W15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="X15" s="5"/>
+      <c r="X15" s="3"/>
     </row>
     <row r="16" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="U16" s="7"/>
-      <c r="W16" s="17" t="s">
+      <c r="U16" s="14"/>
+      <c r="W16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X16" s="5"/>
+      <c r="X16" s="3"/>
     </row>
     <row r="17" spans="6:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W17" s="18" t="s">
+      <c r="W17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="X17" s="7"/>
+      <c r="X17" s="14"/>
     </row>
     <row r="20" spans="6:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="6:24" x14ac:dyDescent="0.3">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D7:I8"/>
+  <mergeCells count="13">
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
@@ -1299,6 +1453,11 @@
     <mergeCell ref="Q7:R8"/>
     <mergeCell ref="T7:U8"/>
     <mergeCell ref="W7:X8"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="T3:V4"/>
+    <mergeCell ref="W3:X4"/>
+    <mergeCell ref="D7:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/부산게임.xlsx
+++ b/부산게임.xlsx
@@ -705,6 +705,30 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="46" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,30 +817,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="D2:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,100 +1130,100 @@
   <sheetData>
     <row r="2" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="44">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="52">
         <v>7.3113425925925915E-2</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="T3" s="40" t="s">
+      <c r="H3" s="53"/>
+      <c r="T3" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="44">
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="52">
         <f>SUM(G3,E10:E15,G10:G15,I10:I15,L9:L13,O9:O15,R9:R12,U9:U16,X9:X17)</f>
-        <v>7.3113425925925915E-2</v>
-      </c>
-      <c r="X3" s="45"/>
+        <v>0.13353009259259258</v>
+      </c>
+      <c r="X3" s="53"/>
     </row>
     <row r="4" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="47"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="55"/>
     </row>
     <row r="6" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="K7" s="58" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="K7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="N7" s="24" t="s">
+      <c r="L7" s="29"/>
+      <c r="N7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="Q7" s="28" t="s">
+      <c r="O7" s="33"/>
+      <c r="Q7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="29"/>
-      <c r="T7" s="32" t="s">
+      <c r="R7" s="37"/>
+      <c r="T7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="33"/>
-      <c r="W7" s="36" t="s">
+      <c r="U7" s="41"/>
+      <c r="W7" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="37"/>
+      <c r="X7" s="45"/>
     </row>
     <row r="8" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="27"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="35"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="39"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="39"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="43"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="47"/>
     </row>
     <row r="9" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="54" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="54" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="57"/>
+      <c r="I9" s="27"/>
       <c r="K9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1257,9 @@
       <c r="H10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11">
+        <v>6.0416666666666667E-2</v>
+      </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1445,11 +1447,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="N7:O8"/>
     <mergeCell ref="Q7:R8"/>
     <mergeCell ref="T7:U8"/>
     <mergeCell ref="W7:X8"/>
@@ -1458,6 +1455,11 @@
     <mergeCell ref="T3:V4"/>
     <mergeCell ref="W3:X4"/>
     <mergeCell ref="D7:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="N7:O8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/부산게임.xlsx
+++ b/부산게임.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>엘베</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시간 35분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,6 +709,84 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="46" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,84 +821,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,7 +1113,7 @@
   <dimension ref="D2:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,100 +1134,100 @@
   <sheetData>
     <row r="2" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="52">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="40">
         <v>7.3113425925925915E-2</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="T3" s="48" t="s">
+      <c r="H3" s="41"/>
+      <c r="T3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="52">
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="40">
         <f>SUM(G3,E10:E15,G10:G15,I10:I15,L9:L13,O9:O15,R9:R12,U9:U16,X9:X17)</f>
         <v>0.13353009259259258</v>
       </c>
-      <c r="X3" s="53"/>
+      <c r="X3" s="41"/>
     </row>
     <row r="4" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="55"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="43"/>
     </row>
     <row r="6" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="K7" s="28" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="K7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="N7" s="32" t="s">
+      <c r="L7" s="55"/>
+      <c r="N7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="Q7" s="36" t="s">
+      <c r="O7" s="59"/>
+      <c r="Q7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="T7" s="40" t="s">
+      <c r="R7" s="25"/>
+      <c r="T7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="41"/>
-      <c r="W7" s="44" t="s">
+      <c r="U7" s="29"/>
+      <c r="W7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="45"/>
+      <c r="X7" s="33"/>
     </row>
     <row r="8" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="39"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="43"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="31"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="35"/>
     </row>
     <row r="9" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="27"/>
+      <c r="I9" s="53"/>
       <c r="K9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1429,24 +1433,34 @@
       </c>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="6:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W17" s="22" t="s">
         <v>51</v>
       </c>
       <c r="X17" s="14"/>
     </row>
-    <row r="20" spans="6:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:24" x14ac:dyDescent="0.3">
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="N7:O8"/>
     <mergeCell ref="Q7:R8"/>
     <mergeCell ref="T7:U8"/>
     <mergeCell ref="W7:X8"/>
@@ -1455,11 +1469,6 @@
     <mergeCell ref="T3:V4"/>
     <mergeCell ref="W3:X4"/>
     <mergeCell ref="D7:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="N7:O8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
